--- a/resources/experiment 2/metrics/R2/upto time/Retinopatía proliferativa (UPTO).xlsx
+++ b/resources/experiment 2/metrics/R2/upto time/Retinopatía proliferativa (UPTO).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8820205500014257</v>
+        <v>0.9881019837019136</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8820197596111252</v>
+        <v>0.985965364695828</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8820197596111252</v>
+        <v>0.7592113448373879</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8779867828853268</v>
+        <v>0.9838804333730072</v>
       </c>
       <c r="C4" t="n">
-        <v>0.877999849744827</v>
+        <v>0.9795343078278971</v>
       </c>
       <c r="D4" t="n">
-        <v>0.877999849744827</v>
+        <v>0.718280879723101</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6924874893540768</v>
+        <v>0.845012341260969</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6924874893540768</v>
+        <v>0.8339604357175182</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6924874893540768</v>
+        <v>0.602278401327291</v>
       </c>
     </row>
   </sheetData>
